--- a/WORKINGDIRECTORY/excelResultsFileName.xlsx
+++ b/WORKINGDIRECTORY/excelResultsFileName.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wfozing\Documents\Maven\SonarTest\WORKINGDIRECTORY\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE270027-D417-4CC1-9C5A-F55C8D670136}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA463C86-B3C0-48EE-AFAC-A7E78FC78247}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,33 +25,15 @@
     <t>PROJECTNAME</t>
   </si>
   <si>
-    <t>BRANCH_COVERAGE</t>
-  </si>
-  <si>
-    <t>LINE_COVERAGE</t>
-  </si>
-  <si>
-    <t>COVERAGE</t>
-  </si>
-  <si>
     <t>TESTS</t>
   </si>
   <si>
     <t>CODE_SMELLS</t>
   </si>
   <si>
-    <t>SQALE_RATING</t>
-  </si>
-  <si>
-    <t>SQALE_INDEX</t>
-  </si>
-  <si>
     <t>DUPLICATED_LINES</t>
   </si>
   <si>
-    <t>DUPLICATED_LINES_DENSITY</t>
-  </si>
-  <si>
     <t>LINES</t>
   </si>
   <si>
@@ -404,6 +386,24 @@
   </si>
   <si>
     <t>beckchr#juel</t>
+  </si>
+  <si>
+    <t>DUPLICATED_LINES_DENSITY (%)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">MAINTAINABILITY_RATING </t>
+  </si>
+  <si>
+    <t>TECHNICAL_DEBT</t>
+  </si>
+  <si>
+    <t>BRANCH_COVERAGE (%)</t>
+  </si>
+  <si>
+    <t>LINE_COVERAGE (%)</t>
+  </si>
+  <si>
+    <t>COVERAGE (%)</t>
   </si>
 </sst>
 </file>
@@ -810,21 +810,21 @@
   <dimension ref="A1:O114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="44.88671875" customWidth="1"/>
-    <col min="2" max="2" width="31.5546875" customWidth="1"/>
-    <col min="3" max="3" width="24.5546875" customWidth="1"/>
-    <col min="4" max="4" width="20.6640625" customWidth="1"/>
+    <col min="2" max="2" width="33.44140625" customWidth="1"/>
+    <col min="3" max="3" width="28.21875" customWidth="1"/>
+    <col min="4" max="4" width="22" customWidth="1"/>
     <col min="5" max="5" width="11.21875" customWidth="1"/>
     <col min="6" max="6" width="21.88671875" customWidth="1"/>
-    <col min="7" max="7" width="22.21875" customWidth="1"/>
-    <col min="8" max="8" width="23" customWidth="1"/>
+    <col min="7" max="7" width="37.5546875" customWidth="1"/>
+    <col min="8" max="8" width="27.6640625" customWidth="1"/>
     <col min="9" max="9" width="28.109375" customWidth="1"/>
-    <col min="10" max="10" width="40.109375" customWidth="1"/>
+    <col min="10" max="10" width="44.21875" customWidth="1"/>
     <col min="11" max="11" width="11.21875" customWidth="1"/>
     <col min="12" max="12" width="9.88671875" customWidth="1"/>
     <col min="13" max="13" width="31.6640625" customWidth="1"/>
@@ -837,51 +837,51 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>125</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="J1" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="L1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="M1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="N1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="O1" s="1" t="s">
         <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="2" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B2" s="3">
         <v>52.900001525878906</v>
@@ -928,7 +928,7 @@
     </row>
     <row r="3" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A3" s="2" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B3" s="3">
         <v>47.299999237060547</v>
@@ -975,7 +975,7 @@
     </row>
     <row r="4" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A4" s="2" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
       <c r="B4" s="3">
         <v>35.200000762939453</v>
@@ -1022,7 +1022,7 @@
     </row>
     <row r="5" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A5" s="2" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B5" s="3">
         <v>0</v>
@@ -1069,7 +1069,7 @@
     </row>
     <row r="6" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A6" s="2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B6" s="3">
         <v>85.900001525878906</v>
@@ -1116,7 +1116,7 @@
     </row>
     <row r="7" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A7" s="2" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="B7" s="3">
         <v>47.400001525878906</v>
@@ -1163,7 +1163,7 @@
     </row>
     <row r="8" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A8" s="2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="B8" s="3">
         <v>93.400001525878906</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="9" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A9" s="2" t="s">
-        <v>22</v>
+        <v>16</v>
       </c>
       <c r="B9" s="3">
         <v>33.700000762939453</v>
@@ -1257,7 +1257,7 @@
     </row>
     <row r="10" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A10" s="2" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="B10" s="3">
         <v>0</v>
@@ -1304,7 +1304,7 @@
     </row>
     <row r="11" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A11" s="2" t="s">
-        <v>24</v>
+        <v>18</v>
       </c>
       <c r="B11" s="3">
         <v>37.5</v>
@@ -1351,7 +1351,7 @@
     </row>
     <row r="12" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A12" s="2" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="B12" s="3">
         <v>91.5</v>
@@ -1398,7 +1398,7 @@
     </row>
     <row r="13" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A13" s="2" t="s">
-        <v>26</v>
+        <v>20</v>
       </c>
       <c r="B13" s="3">
         <v>15.899999618530273</v>
@@ -1445,7 +1445,7 @@
     </row>
     <row r="14" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A14" s="2" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="B14" s="3">
         <v>30.399999618530273</v>
@@ -1492,7 +1492,7 @@
     </row>
     <row r="15" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A15" s="2" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="B15" s="3">
         <v>96.900001525878906</v>
@@ -1539,7 +1539,7 @@
     </row>
     <row r="16" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A16" s="2" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="B16" s="3">
         <v>21.100000381469727</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="17" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="B17" s="3">
         <v>55.099998474121094</v>
@@ -1633,7 +1633,7 @@
     </row>
     <row r="18" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="B18" s="3">
         <v>55.200000762939453</v>
@@ -1680,7 +1680,7 @@
     </row>
     <row r="19" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A19" s="2" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="B19" s="3">
         <v>18.799999237060547</v>
@@ -1727,7 +1727,7 @@
     </row>
     <row r="20" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A20" s="2" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="B20" s="3">
         <v>72.599998474121094</v>
@@ -1774,7 +1774,7 @@
     </row>
     <row r="21" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="B21" s="3">
         <v>98</v>
@@ -1821,7 +1821,7 @@
     </row>
     <row r="22" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A22" s="2" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="B22" s="3">
         <v>100</v>
@@ -1868,7 +1868,7 @@
     </row>
     <row r="23" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A23" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B23" s="3">
         <v>30.200000762939453</v>
@@ -1915,7 +1915,7 @@
     </row>
     <row r="24" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="B24" s="3">
         <v>83.300003051757813</v>
@@ -1962,7 +1962,7 @@
     </row>
     <row r="25" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A25" s="2" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="B25" s="3">
         <v>89</v>
@@ -2009,7 +2009,7 @@
     </row>
     <row r="26" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A26" s="2" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="B26" s="3">
         <v>46.700000762939453</v>
@@ -2056,7 +2056,7 @@
     </row>
     <row r="27" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A27" s="2" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="B27" s="3">
         <v>7</v>
@@ -2103,7 +2103,7 @@
     </row>
     <row r="28" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A28" s="2" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="B28" s="3">
         <v>71.400001525878906</v>
@@ -2150,7 +2150,7 @@
     </row>
     <row r="29" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="B29" s="3">
         <v>92.099998474121094</v>
@@ -2197,7 +2197,7 @@
     </row>
     <row r="30" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A30" s="2" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B30" s="3">
         <v>81.300003051757813</v>
@@ -2244,7 +2244,7 @@
     </row>
     <row r="31" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A31" s="2" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="B31" s="3">
         <v>70.300003051757813</v>
@@ -2291,7 +2291,7 @@
     </row>
     <row r="32" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="2" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="B32" s="3">
         <v>71.099998474121094</v>
@@ -2338,7 +2338,7 @@
     </row>
     <row r="33" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="B33" s="3">
         <v>82.5</v>
@@ -2385,7 +2385,7 @@
     </row>
     <row r="34" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="2" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
       <c r="B34" s="3">
         <v>60.200000762939453</v>
@@ -2432,7 +2432,7 @@
     </row>
     <row r="35" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="B35" s="3">
         <v>30.200000762939453</v>
@@ -2479,7 +2479,7 @@
     </row>
     <row r="36" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
-        <v>49</v>
+        <v>43</v>
       </c>
       <c r="B36" s="3">
         <v>46.599998474121094</v>
@@ -2526,7 +2526,7 @@
     </row>
     <row r="37" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
-        <v>50</v>
+        <v>44</v>
       </c>
       <c r="B37" s="3">
         <v>0</v>
@@ -2571,7 +2571,7 @@
     </row>
     <row r="38" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
-        <v>51</v>
+        <v>45</v>
       </c>
       <c r="B38" s="3">
         <v>65.599998474121094</v>
@@ -2618,7 +2618,7 @@
     </row>
     <row r="39" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="B39" s="3">
         <v>78.5</v>
@@ -2665,7 +2665,7 @@
     </row>
     <row r="40" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
-        <v>53</v>
+        <v>47</v>
       </c>
       <c r="B40" s="3">
         <v>18.299999237060547</v>
@@ -2712,7 +2712,7 @@
     </row>
     <row r="41" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A41" s="2" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="B41" s="3">
         <v>83.199996948242188</v>
@@ -2759,7 +2759,7 @@
     </row>
     <row r="42" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A42" s="2" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="B42" s="3">
         <v>40.200000762939453</v>
@@ -2806,7 +2806,7 @@
     </row>
     <row r="43" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A43" s="2" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="B43" s="3">
         <v>4.4000000953674316</v>
@@ -2853,7 +2853,7 @@
     </row>
     <row r="44" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A44" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B44" s="3">
         <v>0</v>
@@ -2898,7 +2898,7 @@
     </row>
     <row r="45" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A45" s="2" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B45" s="3">
         <v>64</v>
@@ -2945,7 +2945,7 @@
     </row>
     <row r="46" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A46" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="B46" s="3">
         <v>77.099998474121094</v>
@@ -2992,7 +2992,7 @@
     </row>
     <row r="47" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A47" s="2" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="B47" s="3">
         <v>29.200000762939453</v>
@@ -3037,7 +3037,7 @@
     </row>
     <row r="48" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A48" s="2" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="B48" s="3">
         <v>43.799999237060547</v>
@@ -3084,7 +3084,7 @@
     </row>
     <row r="49" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A49" s="2" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="B49" s="3">
         <v>85</v>
@@ -3131,7 +3131,7 @@
     </row>
     <row r="50" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A50" s="2" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="B50" s="3">
         <v>49.5</v>
@@ -3176,7 +3176,7 @@
     </row>
     <row r="51" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A51" s="2" t="s">
-        <v>64</v>
+        <v>58</v>
       </c>
       <c r="B51" s="3">
         <v>64.099998474121094</v>
@@ -3223,7 +3223,7 @@
     </row>
     <row r="52" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A52" s="2" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="B52" s="3">
         <v>0</v>
@@ -3268,7 +3268,7 @@
     </row>
     <row r="53" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A53" s="2" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="B53" s="3">
         <v>0</v>
@@ -3315,7 +3315,7 @@
     </row>
     <row r="54" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A54" s="2" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="B54" s="3">
         <v>20.600000381469727</v>
@@ -3362,7 +3362,7 @@
     </row>
     <row r="55" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A55" s="2" t="s">
-        <v>68</v>
+        <v>62</v>
       </c>
       <c r="B55" s="3">
         <v>95.5</v>
@@ -3407,7 +3407,7 @@
     </row>
     <row r="56" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A56" s="2" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="B56" s="3">
         <v>55.700000762939453</v>
@@ -3454,7 +3454,7 @@
     </row>
     <row r="57" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A57" s="2" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="B57" s="3">
         <v>0</v>
@@ -3501,7 +3501,7 @@
     </row>
     <row r="58" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A58" s="2" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="B58" s="3">
         <v>0</v>
@@ -3548,7 +3548,7 @@
     </row>
     <row r="59" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A59" s="2" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B59" s="3"/>
       <c r="C59" s="3">
@@ -3593,7 +3593,7 @@
     </row>
     <row r="60" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A60" s="2" t="s">
-        <v>73</v>
+        <v>67</v>
       </c>
       <c r="B60" s="3">
         <v>10.800000190734863</v>
@@ -3640,7 +3640,7 @@
     </row>
     <row r="61" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A61" s="2" t="s">
-        <v>74</v>
+        <v>68</v>
       </c>
       <c r="B61" s="3">
         <v>78.699996948242188</v>
@@ -3687,7 +3687,7 @@
     </row>
     <row r="62" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A62" s="2" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B62" s="3">
         <v>13.199999809265137</v>
@@ -3734,7 +3734,7 @@
     </row>
     <row r="63" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A63" s="2" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B63" s="3">
         <v>8.3000001907348633</v>
@@ -3781,7 +3781,7 @@
     </row>
     <row r="64" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A64" s="2" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="B64" s="3">
         <v>51.599998474121094</v>
@@ -3828,7 +3828,7 @@
     </row>
     <row r="65" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A65" s="2" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="B65" s="3">
         <v>74.599998474121094</v>
@@ -3875,7 +3875,7 @@
     </row>
     <row r="66" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A66" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="B66" s="3">
         <v>3.5</v>
@@ -3922,7 +3922,7 @@
     </row>
     <row r="67" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A67" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="B67" s="3">
         <v>45.400001525878906</v>
@@ -3969,7 +3969,7 @@
     </row>
     <row r="68" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A68" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="B68" s="3">
         <v>24.100000381469727</v>
@@ -4016,7 +4016,7 @@
     </row>
     <row r="69" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A69" s="2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B69" s="3">
         <v>7.5999999046325684</v>
@@ -4063,7 +4063,7 @@
     </row>
     <row r="70" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A70" s="2" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B70" s="3">
         <v>78.300003051757813</v>
@@ -4110,7 +4110,7 @@
     </row>
     <row r="71" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A71" s="2" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B71" s="3">
         <v>6.5</v>
@@ -4155,7 +4155,7 @@
     </row>
     <row r="72" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B72" s="3">
         <v>77.5</v>
@@ -4202,7 +4202,7 @@
     </row>
     <row r="73" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A73" s="2" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
       <c r="B73" s="3">
         <v>0</v>
@@ -4249,7 +4249,7 @@
     </row>
     <row r="74" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A74" s="2" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B74" s="3">
         <v>71.900001525878906</v>
@@ -4296,7 +4296,7 @@
     </row>
     <row r="75" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A75" s="2" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B75" s="3">
         <v>34.400001525878906</v>
@@ -4343,7 +4343,7 @@
     </row>
     <row r="76" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A76" s="2" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B76" s="3">
         <v>48.5</v>
@@ -4390,7 +4390,7 @@
     </row>
     <row r="77" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A77" s="2" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="B77" s="3">
         <v>67.300003051757813</v>
@@ -4437,7 +4437,7 @@
     </row>
     <row r="78" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A78" s="2" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="B78" s="3">
         <v>66.699996948242188</v>
@@ -4484,7 +4484,7 @@
     </row>
     <row r="79" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A79" s="2" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="B79" s="3">
         <v>73.300003051757813</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="80" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A80" s="2" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="B80" s="3">
         <v>52.599998474121094</v>
@@ -4578,7 +4578,7 @@
     </row>
     <row r="81" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A81" s="2" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="B81" s="3">
         <v>13</v>
@@ -4625,7 +4625,7 @@
     </row>
     <row r="82" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A82" s="2" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B82" s="3">
         <v>20.299999237060547</v>
@@ -4672,7 +4672,7 @@
     </row>
     <row r="83" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A83" s="2" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
       <c r="B83" s="3">
         <v>23.600000381469727</v>
@@ -4719,7 +4719,7 @@
     </row>
     <row r="84" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A84" s="2" t="s">
-        <v>97</v>
+        <v>91</v>
       </c>
       <c r="B84" s="3">
         <v>64.099998474121094</v>
@@ -4766,7 +4766,7 @@
     </row>
     <row r="85" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A85" s="2" t="s">
-        <v>98</v>
+        <v>92</v>
       </c>
       <c r="B85" s="3">
         <v>30.600000381469727</v>
@@ -4813,7 +4813,7 @@
     </row>
     <row r="86" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A86" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B86" s="3">
         <v>56.099998474121094</v>
@@ -4860,7 +4860,7 @@
     </row>
     <row r="87" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A87" s="2" t="s">
-        <v>100</v>
+        <v>94</v>
       </c>
       <c r="B87" s="3">
         <v>51.299999237060547</v>
@@ -4907,7 +4907,7 @@
     </row>
     <row r="88" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A88" s="2" t="s">
-        <v>101</v>
+        <v>95</v>
       </c>
       <c r="B88" s="3">
         <v>51.700000762939453</v>
@@ -4954,7 +4954,7 @@
     </row>
     <row r="89" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A89" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B89" s="3">
         <v>62</v>
@@ -5001,7 +5001,7 @@
     </row>
     <row r="90" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A90" s="2" t="s">
-        <v>103</v>
+        <v>97</v>
       </c>
       <c r="B90" s="3">
         <v>0</v>
@@ -5048,7 +5048,7 @@
     </row>
     <row r="91" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A91" s="2" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
       <c r="B91" s="3">
         <v>0</v>
@@ -5095,7 +5095,7 @@
     </row>
     <row r="92" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A92" s="2" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
       <c r="B92" s="3">
         <v>62.700000762939453</v>
@@ -5142,7 +5142,7 @@
     </row>
     <row r="93" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A93" s="2" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
       <c r="B93" s="3">
         <v>30.299999237060547</v>
@@ -5189,7 +5189,7 @@
     </row>
     <row r="94" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A94" s="2" t="s">
-        <v>107</v>
+        <v>101</v>
       </c>
       <c r="B94" s="3">
         <v>37.299999237060547</v>
@@ -5236,7 +5236,7 @@
     </row>
     <row r="95" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A95" s="2" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B95" s="3">
         <v>20.799999237060547</v>
@@ -5283,7 +5283,7 @@
     </row>
     <row r="96" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A96" s="2" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B96" s="3">
         <v>4.1999998092651367</v>
@@ -5330,7 +5330,7 @@
     </row>
     <row r="97" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A97" s="2" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
       <c r="B97" s="3">
         <v>0</v>
@@ -5375,7 +5375,7 @@
     </row>
     <row r="98" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A98" s="2" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
       <c r="B98" s="3">
         <v>58.200000762939453</v>
@@ -5422,7 +5422,7 @@
     </row>
     <row r="99" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A99" s="2" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B99" s="3">
         <v>77.199996948242188</v>
@@ -5469,7 +5469,7 @@
     </row>
     <row r="100" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A100" s="2" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="B100" s="3">
         <v>57.099998474121094</v>
@@ -5516,7 +5516,7 @@
     </row>
     <row r="101" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A101" s="2" t="s">
-        <v>114</v>
+        <v>108</v>
       </c>
       <c r="B101" s="3">
         <v>78.699996948242188</v>
@@ -5563,7 +5563,7 @@
     </row>
     <row r="102" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A102" s="2" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="B102" s="3">
         <v>1.8999999761581421</v>
@@ -5610,7 +5610,7 @@
     </row>
     <row r="103" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A103" s="2" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="B103" s="3">
         <v>67.400001525878906</v>
@@ -5657,7 +5657,7 @@
     </row>
     <row r="104" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A104" s="2" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="B104" s="3">
         <v>0</v>
@@ -5704,7 +5704,7 @@
     </row>
     <row r="105" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A105" s="2" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="B105" s="3">
         <v>26.600000381469727</v>
@@ -5751,7 +5751,7 @@
     </row>
     <row r="106" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A106" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="B106" s="3">
         <v>80</v>
@@ -5798,7 +5798,7 @@
     </row>
     <row r="107" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A107" s="2" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="B107" s="3">
         <v>5.5999999046325684</v>
@@ -5845,7 +5845,7 @@
     </row>
     <row r="108" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A108" s="2" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B108" s="3">
         <v>0</v>
@@ -5892,7 +5892,7 @@
     </row>
     <row r="109" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A109" s="2" t="s">
-        <v>122</v>
+        <v>116</v>
       </c>
       <c r="B109" s="3"/>
       <c r="C109" s="3">
@@ -5937,7 +5937,7 @@
     </row>
     <row r="110" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A110" s="2" t="s">
-        <v>123</v>
+        <v>117</v>
       </c>
       <c r="B110" s="3">
         <v>85.900001525878906</v>
@@ -5984,7 +5984,7 @@
     </row>
     <row r="111" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A111" s="2" t="s">
-        <v>124</v>
+        <v>118</v>
       </c>
       <c r="B111" s="3">
         <v>85.900001525878906</v>
@@ -6031,7 +6031,7 @@
     </row>
     <row r="112" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A112" s="2" t="s">
-        <v>125</v>
+        <v>119</v>
       </c>
       <c r="B112" s="3">
         <v>96.900001525878906</v>
@@ -6078,7 +6078,7 @@
     </row>
     <row r="113" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A113" s="2" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
       <c r="B113" s="3">
         <v>85.900001525878906</v>
@@ -6125,7 +6125,7 @@
     </row>
     <row r="114" spans="1:15" ht="18" x14ac:dyDescent="0.35">
       <c r="A114" s="2" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B114" s="3">
         <v>97</v>
